--- a/Trip and visit WY24_25 Database.xlsx
+++ b/Trip and visit WY24_25 Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azhartan/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADBA548-91A5-D34A-859E-3DAE0C6A543D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3139A4-3663-3140-9E1C-C8CA2E0A4F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14160" xr2:uid="{2A6250CB-0E72-D34B-9E58-2A5B8C13EA68}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>S/N</t>
   </si>
@@ -193,9 +193,6 @@
     <t>NOS</t>
   </si>
   <si>
-    <t>Trip or Visit</t>
-  </si>
-  <si>
     <t>Trip/Visit</t>
   </si>
   <si>
@@ -222,6 +219,15 @@
   <si>
     <t>LOK</t>
   </si>
+  <si>
+    <t>Confluence Link</t>
+  </si>
+  <si>
+    <t>www.google.com.sg</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
 </sst>
 </file>
 
@@ -230,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,6 +249,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -263,15 +277,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -655,19 +672,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826E0327-3077-DD4B-8AF7-1631FDB88C0E}">
-  <dimension ref="A1:I1001"/>
+  <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +697,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -695,8 +714,11 @@
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" cm="1">
         <f t="array" ref="A2:A1001">_xlfn.SEQUENCE(1000,1,1,1)</f>
         <v>1</v>
@@ -708,7 +730,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2">
         <v>45413</v>
@@ -725,8 +747,11 @@
       <c r="I2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -737,7 +762,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2">
         <v>45441</v>
@@ -755,7 +780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -766,7 +791,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2">
         <v>45554</v>
@@ -784,7 +809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -795,7 +820,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2">
         <v>45394</v>
@@ -813,7 +838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -824,7 +849,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2">
         <v>45585</v>
@@ -842,7 +867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -853,7 +878,7 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
         <v>45413</v>
@@ -871,7 +896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -882,7 +907,7 @@
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2">
         <v>45389</v>
@@ -900,7 +925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -911,7 +936,7 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2">
         <v>45544</v>
@@ -929,7 +954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -940,7 +965,7 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2">
         <v>45871</v>
@@ -958,7 +983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -969,7 +994,7 @@
         <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2">
         <v>45615</v>
@@ -987,18 +1012,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2">
         <v>45330</v>
@@ -1013,21 +1038,21 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2">
         <v>45616</v>
@@ -1042,24 +1067,24 @@
         <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7979,6 +8004,9 @@
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{201EF145-C17A-F942-9C05-3D3DC1BC4B43}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -7999,7 +8027,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8025,7 +8053,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
@@ -8036,7 +8064,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -8047,7 +8075,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">

--- a/Trip and visit WY24_25 Database.xlsx
+++ b/Trip and visit WY24_25 Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azhartan/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DA33AF-53D6-944B-BA6A-051E18C215B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AB76F7-6C64-3C44-9E4F-D2B4354A7AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14160" xr2:uid="{2A6250CB-0E72-D34B-9E58-2A5B8C13EA68}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="117">
   <si>
     <t>S/N</t>
   </si>
@@ -354,6 +354,63 @@
   <si>
     <t>Liaison</t>
   </si>
+  <si>
+    <t>LON</t>
+  </si>
+  <si>
+    <t>BKK</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>ABD</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>PNH</t>
+  </si>
+  <si>
+    <t>BEI</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>sada</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>sadas</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>dsad</t>
+  </si>
+  <si>
+    <t>sadsa</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
 </sst>
 </file>
 
@@ -361,7 +418,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmm\ yy;@"/>
-    <numFmt numFmtId="166" formatCode="mmmm"/>
+    <numFmt numFmtId="165" formatCode="mmmm"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -413,7 +470,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -803,7 +860,7 @@
   <dimension ref="A1:V1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -927,14 +984,38 @@
       <c r="I2" t="s">
         <v>26</v>
       </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" t="s">
+        <v>115</v>
+      </c>
       <c r="M2" t="s">
         <v>21</v>
       </c>
       <c r="N2" t="s">
         <v>59</v>
       </c>
+      <c r="O2" t="s">
+        <v>99</v>
+      </c>
       <c r="P2" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2">
+        <v>987</v>
+      </c>
+      <c r="S2">
+        <v>546</v>
+      </c>
+      <c r="T2" t="s">
+        <v>114</v>
       </c>
       <c r="U2" s="4" t="str">
         <f>IF(B2&lt;&gt;"",TEXT(B2,"mmmm"),"")</f>
@@ -970,8 +1051,38 @@
       <c r="I3" t="s">
         <v>27</v>
       </c>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" t="s">
+        <v>115</v>
+      </c>
       <c r="M3" t="s">
         <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3">
+        <v>51631</v>
+      </c>
+      <c r="S3">
+        <v>897</v>
+      </c>
+      <c r="T3" t="s">
+        <v>114</v>
       </c>
       <c r="U3" s="4" t="str">
         <f t="shared" ref="U3:U66" si="0">IF(B3&lt;&gt;"",TEXT(B3,"mmmm"),"")</f>
@@ -1007,8 +1118,38 @@
       <c r="I4" t="s">
         <v>28</v>
       </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" t="s">
+        <v>115</v>
+      </c>
       <c r="M4" t="s">
         <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R4">
+        <v>987</v>
+      </c>
+      <c r="S4">
+        <v>51</v>
+      </c>
+      <c r="T4" t="s">
+        <v>114</v>
       </c>
       <c r="U4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1044,8 +1185,38 @@
       <c r="I5" t="s">
         <v>29</v>
       </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s">
+        <v>115</v>
+      </c>
       <c r="M5" t="s">
         <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>110</v>
+      </c>
+      <c r="R5">
+        <v>987</v>
+      </c>
+      <c r="S5">
+        <v>9</v>
+      </c>
+      <c r="T5" t="s">
+        <v>114</v>
       </c>
       <c r="U5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1081,8 +1252,38 @@
       <c r="I6" t="s">
         <v>30</v>
       </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
+        <v>116</v>
+      </c>
       <c r="M6" t="s">
         <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R6">
+        <v>894</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6" t="s">
+        <v>114</v>
       </c>
       <c r="U6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1118,8 +1319,38 @@
       <c r="I7" t="s">
         <v>27</v>
       </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>116</v>
+      </c>
       <c r="M7" t="s">
         <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7">
+        <v>51</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7" t="s">
+        <v>114</v>
       </c>
       <c r="U7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1155,8 +1386,38 @@
       <c r="I8" t="s">
         <v>35</v>
       </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>116</v>
+      </c>
       <c r="M8" t="s">
         <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>88</v>
+      </c>
+      <c r="T8" t="s">
+        <v>114</v>
       </c>
       <c r="U8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1192,8 +1453,38 @@
       <c r="I9" t="s">
         <v>38</v>
       </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
       <c r="M9" t="s">
         <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9">
+        <v>51</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9" t="s">
+        <v>114</v>
       </c>
       <c r="U9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1229,8 +1520,38 @@
       <c r="I10" t="s">
         <v>27</v>
       </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
       <c r="M10" t="s">
         <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10">
+        <v>65</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>114</v>
       </c>
       <c r="U10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1266,8 +1587,38 @@
       <c r="I11" t="s">
         <v>27</v>
       </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
       <c r="M11" t="s">
         <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>112</v>
+      </c>
+      <c r="R11">
+        <v>151</v>
+      </c>
+      <c r="S11">
+        <v>5641</v>
+      </c>
+      <c r="T11" t="s">
+        <v>114</v>
       </c>
       <c r="U11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1303,8 +1654,38 @@
       <c r="I12" t="s">
         <v>47</v>
       </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
       <c r="M12" t="s">
         <v>46</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>112</v>
+      </c>
+      <c r="R12">
+        <v>51</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s">
+        <v>114</v>
       </c>
       <c r="U12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1340,8 +1721,38 @@
       <c r="I13" t="s">
         <v>50</v>
       </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
       <c r="M13" t="s">
         <v>49</v>
+      </c>
+      <c r="N13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>111</v>
+      </c>
+      <c r="R13">
+        <v>651</v>
+      </c>
+      <c r="S13">
+        <v>51</v>
+      </c>
+      <c r="T13" t="s">
+        <v>114</v>
       </c>
       <c r="U13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16192,6 +16603,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="P2" r:id="rId1" xr:uid="{201EF145-C17A-F942-9C05-3D3DC1BC4B43}"/>
+    <hyperlink ref="P3:P13" r:id="rId2" display="www.google.com.sg" xr:uid="{E405E09E-C8D9-6241-8093-99C938744034}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
